--- a/gastos.xlsx
+++ b/gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grodr\OneDrive\Área de Trabalho\Gastos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grodr\OneDrive\Área de Trabalho\Gastos\Controle-Financeiro-simples-Controle-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C7AF7-19A0-4E78-90AE-B272DAD114A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF338CF-1F48-4EDF-8380-439254471387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DE84244-5732-49A3-B994-66F16ACB99EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DE84244-5732-49A3-B994-66F16ACB99EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Orçameto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
   <si>
     <t>Tipos de Entradas</t>
   </si>
@@ -57,16 +57,10 @@
     <t>Renda Principal</t>
   </si>
   <si>
-    <t>Transporte</t>
-  </si>
-  <si>
     <t>academia</t>
   </si>
   <si>
     <t>Pos graduação</t>
-  </si>
-  <si>
-    <t>Pessoal</t>
   </si>
   <si>
     <t>Habitação</t>
@@ -79,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,8 +109,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,25 +425,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7899D61A-7D7B-4E50-9EDC-736218020ED2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -456,13 +451,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -470,36 +465,33 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>44927</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
-        <v>1000</v>
+      <c r="E2" s="2">
+        <v>900</v>
       </c>
       <c r="F2" s="1">
         <v>44927</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>44927</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5000</v>
       </c>
       <c r="F3" s="1">
@@ -507,55 +499,46 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>44958</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>44958</v>
       </c>
       <c r="B7" t="s">
@@ -564,12 +547,15 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
         <v>3500</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>44986</v>
       </c>
       <c r="B8" t="s">
@@ -578,11 +564,587 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>6500</v>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>